--- a/File_Excel.xlsx
+++ b/File_Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>aasda</t>
   </si>
 </sst>
 </file>
@@ -344,17 +347,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel.xlsx
+++ b/File_Excel.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ABC</t>
   </si>
   <si>
     <t>aasda</t>
+  </si>
+  <si>
+    <t>coba perubahan 2</t>
   </si>
 </sst>
 </file>
@@ -347,22 +350,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel.xlsx
+++ b/File_Excel.xlsx
@@ -29,10 +29,10 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>aasda</t>
+    <t>coba perubahan 2</t>
   </si>
   <si>
-    <t>coba perubahan 2</t>
+    <t>ini yang diganti</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -365,12 +365,12 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel.xlsx
+++ b/File_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ABC</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>ini yang diganti</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -350,25 +353,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>2</v>
       </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>1</v>
       </c>

--- a/File_Excel.xlsx
+++ b/File_Excel.xlsx
@@ -35,7 +35,7 @@
     <t>ini yang diganti</t>
   </si>
   <si>
-    <t>aaa</t>
+    <t>bbb</t>
   </si>
 </sst>
 </file>
@@ -360,6 +360,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
